--- a/files/excel.xlsx
+++ b/files/excel.xlsx
@@ -68,8 +68,7 @@
     <t>小范围</t>
   </si>
   <si>
-    <t>农业；
-食品饮料</t>
+    <t>农业</t>
   </si>
   <si>
     <t>是</t>
@@ -87,8 +86,7 @@
     <t>研究员C</t>
   </si>
   <si>
-    <t>农业；
-机械</t>
+    <t>机械</t>
   </si>
   <si>
     <t>否</t>
@@ -1257,7 +1255,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6346153846154" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1294,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:8">
+    <row r="2" ht="17" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:8">
+    <row r="3" ht="17" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
